--- a/webscrapping/src/test/resources/ScrapeData/Hypothyroid_Input.xlsx
+++ b/webscrapping/src/test/resources/ScrapeData/Hypothyroid_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\eclipse-workspace\webscrapping\src\test\resources\ScrapeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C65B62C-0C8C-41B3-BDC1-4817BE6C9C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607AA6C-F8A5-4147-9F0D-9FDBCBB5E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1392" yWindow="948" windowWidth="11076" windowHeight="11292" activeTab="3" xr2:uid="{E5DA0E1F-D678-4860-AD31-3118D1BD8A6A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>sheetcounter</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Hypothyroid Breakfast</t>
-  </si>
-  <si>
-    <t>Hypothyroid Lunch</t>
   </si>
   <si>
     <t>Hypothyroid snack</t>
@@ -1234,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5E1D46-BD38-4DA3-BEF6-C1BE96497412}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1266,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1291,14 +1288,6 @@
       </c>
       <c r="B6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
